--- a/stats/avey/disease_type=all failure-type-ignored=any-error for app=best.xlsx
+++ b/stats/avey/disease_type=all failure-type-ignored=any-error for app=best.xlsx
@@ -619,12 +619,12 @@
       <c r="BO1" s="1" t="n"/>
       <c r="BP1" s="1" t="inlineStr">
         <is>
+          <t>average_doctor_old</t>
+        </is>
+      </c>
+      <c r="BQ1" s="1" t="inlineStr">
+        <is>
           <t>average_doctor</t>
-        </is>
-      </c>
-      <c r="BQ1" s="1" t="inlineStr">
-        <is>
-          <t>average_doctor_old</t>
         </is>
       </c>
     </row>
@@ -979,13 +979,13 @@
         <v>0.282</v>
       </c>
       <c r="E4" t="n">
-        <v>0.359</v>
+        <v>0.423</v>
       </c>
       <c r="F4" t="n">
-        <v>0.068</v>
+        <v>0.07199999999999999</v>
       </c>
       <c r="G4" t="n">
-        <v>0.262</v>
+        <v>0.268</v>
       </c>
       <c r="H4" t="n">
         <v>0.373</v>
@@ -1006,22 +1006,22 @@
         <v>0.26</v>
       </c>
       <c r="N4" t="n">
-        <v>0.397</v>
+        <v>0.436</v>
       </c>
       <c r="O4" t="n">
-        <v>0.067</v>
+        <v>0.063</v>
       </c>
       <c r="P4" t="n">
-        <v>0.26</v>
+        <v>0.251</v>
       </c>
       <c r="Q4" t="n">
-        <v>0.12</v>
+        <v>0.22</v>
       </c>
       <c r="R4" t="n">
-        <v>0.045</v>
+        <v>0.111</v>
       </c>
       <c r="S4" t="n">
-        <v>0.212</v>
+        <v>0.333</v>
       </c>
       <c r="T4" t="n">
         <v>0.409</v>
@@ -1033,13 +1033,13 @@
         <v>0.339</v>
       </c>
       <c r="W4" t="n">
-        <v>0.299</v>
+        <v>0.345</v>
       </c>
       <c r="X4" t="n">
         <v>0.111</v>
       </c>
       <c r="Y4" t="n">
-        <v>0.334</v>
+        <v>0.333</v>
       </c>
       <c r="Z4" t="n">
         <v>0.456</v>
@@ -1069,13 +1069,13 @@
         <v>0.304</v>
       </c>
       <c r="AI4" t="n">
-        <v>0.289</v>
+        <v>0.348</v>
       </c>
       <c r="AJ4" t="n">
-        <v>0.083</v>
+        <v>0.08599999999999999</v>
       </c>
       <c r="AK4" t="n">
-        <v>0.289</v>
+        <v>0.292</v>
       </c>
       <c r="AL4" t="n">
         <v>0.32</v>
@@ -1105,13 +1105,13 @@
         <v>0.153</v>
       </c>
       <c r="AU4" t="n">
-        <v>0.172</v>
+        <v>0.196</v>
       </c>
       <c r="AV4" t="n">
-        <v>0.026</v>
+        <v>0.028</v>
       </c>
       <c r="AW4" t="n">
-        <v>0.161</v>
+        <v>0.166</v>
       </c>
       <c r="AX4" t="n">
         <v>2.295</v>
@@ -1123,13 +1123,13 @@
         <v>0.33</v>
       </c>
       <c r="BA4" t="n">
-        <v>1.876</v>
+        <v>2.064</v>
       </c>
       <c r="BB4" t="n">
-        <v>0.159</v>
+        <v>0.143</v>
       </c>
       <c r="BC4" t="n">
-        <v>0.399</v>
+        <v>0.379</v>
       </c>
       <c r="BD4" t="n">
         <v>0.792</v>
@@ -1141,13 +1141,13 @@
         <v>0.348</v>
       </c>
       <c r="BG4" t="n">
-        <v>0.6820000000000001</v>
+        <v>0.729</v>
       </c>
       <c r="BH4" t="n">
-        <v>0.16</v>
+        <v>0.141</v>
       </c>
       <c r="BI4" t="n">
-        <v>0.4</v>
+        <v>0.375</v>
       </c>
       <c r="BJ4" t="n">
         <v>0.801</v>
@@ -1159,19 +1159,19 @@
         <v>0.262</v>
       </c>
       <c r="BM4" t="n">
-        <v>0.663</v>
+        <v>0.756</v>
       </c>
       <c r="BN4" t="n">
-        <v>0.109</v>
+        <v>0.064</v>
       </c>
       <c r="BO4" t="n">
-        <v>0.33</v>
+        <v>0.253</v>
       </c>
       <c r="BP4" t="n">
+        <v>0.6879999999999999</v>
+      </c>
+      <c r="BQ4" t="n">
         <v>0.765</v>
-      </c>
-      <c r="BQ4" t="n">
-        <v>0.625</v>
       </c>
     </row>
     <row r="5">
@@ -1190,13 +1190,13 @@
         <v>0.293</v>
       </c>
       <c r="E5" t="n">
-        <v>0.452</v>
+        <v>0.538</v>
       </c>
       <c r="F5" t="n">
-        <v>0.089</v>
+        <v>0.08500000000000001</v>
       </c>
       <c r="G5" t="n">
-        <v>0.298</v>
+        <v>0.292</v>
       </c>
       <c r="H5" t="n">
         <v>0.581</v>
@@ -1217,22 +1217,22 @@
         <v>0.328</v>
       </c>
       <c r="N5" t="n">
-        <v>0.655</v>
+        <v>0.741</v>
       </c>
       <c r="O5" t="n">
-        <v>0.089</v>
+        <v>0.076</v>
       </c>
       <c r="P5" t="n">
-        <v>0.299</v>
+        <v>0.276</v>
       </c>
       <c r="Q5" t="n">
-        <v>0.112</v>
+        <v>0.145</v>
       </c>
       <c r="R5" t="n">
-        <v>0.042</v>
+        <v>0.045</v>
       </c>
       <c r="S5" t="n">
-        <v>0.205</v>
+        <v>0.212</v>
       </c>
       <c r="T5" t="n">
         <v>0.392</v>
@@ -1244,7 +1244,7 @@
         <v>0.331</v>
       </c>
       <c r="W5" t="n">
-        <v>0.287</v>
+        <v>0.333</v>
       </c>
       <c r="X5" t="n">
         <v>0.113</v>
@@ -1280,13 +1280,13 @@
         <v>0.278</v>
       </c>
       <c r="AI5" t="n">
-        <v>0.304</v>
+        <v>0.372</v>
       </c>
       <c r="AJ5" t="n">
-        <v>0.08699999999999999</v>
+        <v>0.095</v>
       </c>
       <c r="AK5" t="n">
-        <v>0.295</v>
+        <v>0.308</v>
       </c>
       <c r="AL5" t="n">
         <v>0.429</v>
@@ -1316,13 +1316,13 @@
         <v>0.39</v>
       </c>
       <c r="AU5" t="n">
-        <v>0.321</v>
+        <v>0.381</v>
       </c>
       <c r="AV5" t="n">
-        <v>0.077</v>
+        <v>0.091</v>
       </c>
       <c r="AW5" t="n">
-        <v>0.277</v>
+        <v>0.302</v>
       </c>
       <c r="AX5" t="n">
         <v>1.368</v>
@@ -1334,13 +1334,13 @@
         <v>0.264</v>
       </c>
       <c r="BA5" t="n">
-        <v>1.15</v>
+        <v>1.3</v>
       </c>
       <c r="BB5" t="n">
-        <v>0.07099999999999999</v>
+        <v>0.07199999999999999</v>
       </c>
       <c r="BC5" t="n">
-        <v>0.267</v>
+        <v>0.268</v>
       </c>
       <c r="BD5" t="n">
         <v>0.382</v>
@@ -1352,13 +1352,13 @@
         <v>0.217</v>
       </c>
       <c r="BG5" t="n">
-        <v>0.347</v>
+        <v>0.382</v>
       </c>
       <c r="BH5" t="n">
-        <v>0.053</v>
+        <v>0.05</v>
       </c>
       <c r="BI5" t="n">
-        <v>0.229</v>
+        <v>0.223</v>
       </c>
       <c r="BJ5" t="n">
         <v>0.512</v>
@@ -1370,19 +1370,19 @@
         <v>0.233</v>
       </c>
       <c r="BM5" t="n">
-        <v>0.457</v>
+        <v>0.521</v>
       </c>
       <c r="BN5" t="n">
-        <v>0.074</v>
+        <v>0.047</v>
       </c>
       <c r="BO5" t="n">
-        <v>0.272</v>
+        <v>0.216</v>
       </c>
       <c r="BP5" t="n">
+        <v>0.433</v>
+      </c>
+      <c r="BQ5" t="n">
         <v>0.456</v>
-      </c>
-      <c r="BQ5" t="n">
-        <v>0.383</v>
       </c>
     </row>
     <row r="6">
@@ -1397,7 +1397,7 @@
       <c r="C6" t="inlineStr"/>
       <c r="D6" t="inlineStr"/>
       <c r="E6" t="n">
-        <v>0.4</v>
+        <v>0.474</v>
       </c>
       <c r="F6" t="inlineStr"/>
       <c r="G6" t="inlineStr"/>
@@ -1412,12 +1412,12 @@
       <c r="L6" t="inlineStr"/>
       <c r="M6" t="inlineStr"/>
       <c r="N6" t="n">
-        <v>0.494</v>
+        <v>0.549</v>
       </c>
       <c r="O6" t="inlineStr"/>
       <c r="P6" t="inlineStr"/>
       <c r="Q6" t="n">
-        <v>0.116</v>
+        <v>0.175</v>
       </c>
       <c r="R6" t="inlineStr"/>
       <c r="S6" t="inlineStr"/>
@@ -1427,7 +1427,7 @@
       <c r="U6" t="inlineStr"/>
       <c r="V6" t="inlineStr"/>
       <c r="W6" t="n">
-        <v>0.293</v>
+        <v>0.339</v>
       </c>
       <c r="X6" t="inlineStr"/>
       <c r="Y6" t="inlineStr"/>
@@ -1447,7 +1447,7 @@
       <c r="AG6" t="inlineStr"/>
       <c r="AH6" t="inlineStr"/>
       <c r="AI6" t="n">
-        <v>0.296</v>
+        <v>0.36</v>
       </c>
       <c r="AJ6" t="inlineStr"/>
       <c r="AK6" t="inlineStr"/>
@@ -1467,7 +1467,7 @@
       <c r="AS6" t="inlineStr"/>
       <c r="AT6" t="inlineStr"/>
       <c r="AU6" t="n">
-        <v>0.224</v>
+        <v>0.259</v>
       </c>
       <c r="AV6" t="inlineStr"/>
       <c r="AW6" t="inlineStr"/>
@@ -1477,7 +1477,7 @@
       <c r="AY6" t="inlineStr"/>
       <c r="AZ6" t="inlineStr"/>
       <c r="BA6" t="n">
-        <v>1.42</v>
+        <v>1.589</v>
       </c>
       <c r="BB6" t="inlineStr"/>
       <c r="BC6" t="inlineStr"/>
@@ -1487,7 +1487,7 @@
       <c r="BE6" t="inlineStr"/>
       <c r="BF6" t="inlineStr"/>
       <c r="BG6" t="n">
-        <v>0.46</v>
+        <v>0.501</v>
       </c>
       <c r="BH6" t="inlineStr"/>
       <c r="BI6" t="inlineStr"/>
@@ -1497,15 +1497,15 @@
       <c r="BK6" t="inlineStr"/>
       <c r="BL6" t="inlineStr"/>
       <c r="BM6" t="n">
-        <v>0.541</v>
+        <v>0.617</v>
       </c>
       <c r="BN6" t="inlineStr"/>
       <c r="BO6" t="inlineStr"/>
       <c r="BP6" t="n">
+        <v>0.53</v>
+      </c>
+      <c r="BQ6" t="n">
         <v>0.569</v>
-      </c>
-      <c r="BQ6" t="n">
-        <v>0.473</v>
       </c>
     </row>
     <row r="7">
@@ -1520,7 +1520,7 @@
       <c r="C7" t="inlineStr"/>
       <c r="D7" t="inlineStr"/>
       <c r="E7" t="n">
-        <v>0.43</v>
+        <v>0.51</v>
       </c>
       <c r="F7" t="inlineStr"/>
       <c r="G7" t="inlineStr"/>
@@ -1535,12 +1535,12 @@
       <c r="L7" t="inlineStr"/>
       <c r="M7" t="inlineStr"/>
       <c r="N7" t="n">
-        <v>0.58</v>
+        <v>0.65</v>
       </c>
       <c r="O7" t="inlineStr"/>
       <c r="P7" t="inlineStr"/>
       <c r="Q7" t="n">
-        <v>0.114</v>
+        <v>0.156</v>
       </c>
       <c r="R7" t="inlineStr"/>
       <c r="S7" t="inlineStr"/>
@@ -1550,7 +1550,7 @@
       <c r="U7" t="inlineStr"/>
       <c r="V7" t="inlineStr"/>
       <c r="W7" t="n">
-        <v>0.289</v>
+        <v>0.335</v>
       </c>
       <c r="X7" t="inlineStr"/>
       <c r="Y7" t="inlineStr"/>
@@ -1570,7 +1570,7 @@
       <c r="AG7" t="inlineStr"/>
       <c r="AH7" t="inlineStr"/>
       <c r="AI7" t="n">
-        <v>0.301</v>
+        <v>0.367</v>
       </c>
       <c r="AJ7" t="inlineStr"/>
       <c r="AK7" t="inlineStr"/>
@@ -1590,7 +1590,7 @@
       <c r="AS7" t="inlineStr"/>
       <c r="AT7" t="inlineStr"/>
       <c r="AU7" t="n">
-        <v>0.274</v>
+        <v>0.32</v>
       </c>
       <c r="AV7" t="inlineStr"/>
       <c r="AW7" t="inlineStr"/>
@@ -1600,7 +1600,7 @@
       <c r="AY7" t="inlineStr"/>
       <c r="AZ7" t="inlineStr"/>
       <c r="BA7" t="n">
-        <v>1.244</v>
+        <v>1.402</v>
       </c>
       <c r="BB7" t="inlineStr"/>
       <c r="BC7" t="inlineStr"/>
@@ -1610,7 +1610,7 @@
       <c r="BE7" t="inlineStr"/>
       <c r="BF7" t="inlineStr"/>
       <c r="BG7" t="n">
-        <v>0.385</v>
+        <v>0.422</v>
       </c>
       <c r="BH7" t="inlineStr"/>
       <c r="BI7" t="inlineStr"/>
@@ -1620,15 +1620,15 @@
       <c r="BK7" t="inlineStr"/>
       <c r="BL7" t="inlineStr"/>
       <c r="BM7" t="n">
-        <v>0.487</v>
+        <v>0.556</v>
       </c>
       <c r="BN7" t="inlineStr"/>
       <c r="BO7" t="inlineStr"/>
       <c r="BP7" t="n">
+        <v>0.467</v>
+      </c>
+      <c r="BQ7" t="n">
         <v>0.495</v>
-      </c>
-      <c r="BQ7" t="n">
-        <v>0.415</v>
       </c>
     </row>
     <row r="8">
@@ -1647,13 +1647,13 @@
         <v>0.381</v>
       </c>
       <c r="E8" t="n">
-        <v>0.523</v>
+        <v>0.605</v>
       </c>
       <c r="F8" t="n">
-        <v>0.129</v>
+        <v>0.112</v>
       </c>
       <c r="G8" t="n">
-        <v>0.359</v>
+        <v>0.334</v>
       </c>
       <c r="H8" t="n">
         <v>0.507</v>
@@ -1674,22 +1674,22 @@
         <v>0.342</v>
       </c>
       <c r="N8" t="n">
-        <v>0.701</v>
+        <v>0.781</v>
       </c>
       <c r="O8" t="n">
-        <v>0.094</v>
+        <v>0.06</v>
       </c>
       <c r="P8" t="n">
-        <v>0.307</v>
+        <v>0.245</v>
       </c>
       <c r="Q8" t="n">
-        <v>0.149</v>
+        <v>0.159</v>
       </c>
       <c r="R8" t="n">
-        <v>0.08599999999999999</v>
+        <v>0.08400000000000001</v>
       </c>
       <c r="S8" t="n">
-        <v>0.294</v>
+        <v>0.29</v>
       </c>
       <c r="T8" t="n">
         <v>0.416</v>
@@ -1701,13 +1701,13 @@
         <v>0.362</v>
       </c>
       <c r="W8" t="n">
-        <v>0.317</v>
+        <v>0.367</v>
       </c>
       <c r="X8" t="n">
-        <v>0.128</v>
+        <v>0.122</v>
       </c>
       <c r="Y8" t="n">
-        <v>0.357</v>
+        <v>0.35</v>
       </c>
       <c r="Z8" t="n">
         <v>0.617</v>
@@ -1737,13 +1737,13 @@
         <v>0.317</v>
       </c>
       <c r="AI8" t="n">
-        <v>0.337</v>
+        <v>0.398</v>
       </c>
       <c r="AJ8" t="n">
-        <v>0.12</v>
+        <v>0.128</v>
       </c>
       <c r="AK8" t="n">
-        <v>0.346</v>
+        <v>0.358</v>
       </c>
       <c r="AL8" t="n">
         <v>0.418</v>
@@ -1773,13 +1773,13 @@
         <v>0.311</v>
       </c>
       <c r="AU8" t="n">
-        <v>0.287</v>
+        <v>0.322</v>
       </c>
       <c r="AV8" t="n">
         <v>0.08400000000000001</v>
       </c>
       <c r="AW8" t="n">
-        <v>0.289</v>
+        <v>0.29</v>
       </c>
       <c r="AX8" t="n">
         <v>1.875</v>
@@ -1791,13 +1791,13 @@
         <v>0.281</v>
       </c>
       <c r="BA8" t="n">
-        <v>1.596</v>
+        <v>1.771</v>
       </c>
       <c r="BB8" t="n">
-        <v>0.123</v>
+        <v>0.108</v>
       </c>
       <c r="BC8" t="n">
-        <v>0.35</v>
+        <v>0.328</v>
       </c>
       <c r="BD8" t="n">
         <v>0.574</v>
@@ -1809,13 +1809,13 @@
         <v>0.321</v>
       </c>
       <c r="BG8" t="n">
-        <v>0.524</v>
+        <v>0.5639999999999999</v>
       </c>
       <c r="BH8" t="n">
-        <v>0.118</v>
+        <v>0.108</v>
       </c>
       <c r="BI8" t="n">
-        <v>0.343</v>
+        <v>0.329</v>
       </c>
       <c r="BJ8" t="n">
         <v>0.703</v>
@@ -1827,19 +1827,19 @@
         <v>0.272</v>
       </c>
       <c r="BM8" t="n">
-        <v>0.591</v>
+        <v>0.675</v>
       </c>
       <c r="BN8" t="n">
-        <v>0.102</v>
+        <v>0.061</v>
       </c>
       <c r="BO8" t="n">
-        <v>0.319</v>
+        <v>0.247</v>
       </c>
       <c r="BP8" t="n">
+        <v>0.59</v>
+      </c>
+      <c r="BQ8" t="n">
         <v>0.625</v>
-      </c>
-      <c r="BQ8" t="n">
-        <v>0.532</v>
       </c>
     </row>
     <row r="9">
@@ -1858,13 +1858,13 @@
         <v>0.495</v>
       </c>
       <c r="E9" t="n">
-        <v>0.479</v>
+        <v>0.553</v>
       </c>
       <c r="F9" t="n">
-        <v>0.25</v>
+        <v>0.247</v>
       </c>
       <c r="G9" t="n">
-        <v>0.5</v>
+        <v>0.497</v>
       </c>
       <c r="H9" t="n">
         <v>0.231</v>
@@ -1885,13 +1885,13 @@
         <v>0.5</v>
       </c>
       <c r="N9" t="n">
-        <v>0.624</v>
+        <v>0.6879999999999999</v>
       </c>
       <c r="O9" t="n">
-        <v>0.235</v>
+        <v>0.215</v>
       </c>
       <c r="P9" t="n">
-        <v>0.484</v>
+        <v>0.463</v>
       </c>
       <c r="Q9" t="n">
         <v>0.1</v>
@@ -1912,13 +1912,13 @@
         <v>0.452</v>
       </c>
       <c r="W9" t="n">
-        <v>0.221</v>
+        <v>0.247</v>
       </c>
       <c r="X9" t="n">
-        <v>0.172</v>
+        <v>0.186</v>
       </c>
       <c r="Y9" t="n">
-        <v>0.415</v>
+        <v>0.431</v>
       </c>
       <c r="Z9" t="n">
         <v>0.446</v>
@@ -1948,13 +1948,13 @@
         <v>0.377</v>
       </c>
       <c r="AI9" t="n">
-        <v>0.256</v>
+        <v>0.308</v>
       </c>
       <c r="AJ9" t="n">
-        <v>0.191</v>
+        <v>0.213</v>
       </c>
       <c r="AK9" t="n">
-        <v>0.437</v>
+        <v>0.462</v>
       </c>
       <c r="AL9" t="n">
         <v>0.241</v>
@@ -2002,13 +2002,13 @@
         <v>0.499</v>
       </c>
       <c r="BA9" t="n">
-        <v>1.581</v>
+        <v>1.744</v>
       </c>
       <c r="BB9" t="n">
-        <v>0.249</v>
+        <v>0.25</v>
       </c>
       <c r="BC9" t="n">
-        <v>0.499</v>
+        <v>0.5</v>
       </c>
       <c r="BD9" t="n">
         <v>0.625</v>
@@ -2020,13 +2020,13 @@
         <v>0.484</v>
       </c>
       <c r="BG9" t="n">
-        <v>0.5580000000000001</v>
+        <v>0.605</v>
       </c>
       <c r="BH9" t="n">
-        <v>0.247</v>
+        <v>0.239</v>
       </c>
       <c r="BI9" t="n">
-        <v>0.497</v>
+        <v>0.489</v>
       </c>
       <c r="BJ9" t="n">
         <v>0.696</v>
@@ -2038,19 +2038,19 @@
         <v>0.46</v>
       </c>
       <c r="BM9" t="n">
-        <v>0.5580000000000001</v>
+        <v>0.651</v>
       </c>
       <c r="BN9" t="n">
-        <v>0.247</v>
+        <v>0.227</v>
       </c>
       <c r="BO9" t="n">
-        <v>0.497</v>
+        <v>0.477</v>
       </c>
       <c r="BP9" t="n">
+        <v>0.581</v>
+      </c>
+      <c r="BQ9" t="n">
         <v>0.619</v>
-      </c>
-      <c r="BQ9" t="n">
-        <v>0.527</v>
       </c>
     </row>
     <row r="10">
@@ -2069,13 +2069,13 @@
         <v>0.443</v>
       </c>
       <c r="E10" t="n">
-        <v>0.596</v>
+        <v>0.681</v>
       </c>
       <c r="F10" t="n">
-        <v>0.241</v>
+        <v>0.217</v>
       </c>
       <c r="G10" t="n">
-        <v>0.491</v>
+        <v>0.466</v>
       </c>
       <c r="H10" t="n">
         <v>0.593</v>
@@ -2096,13 +2096,13 @@
         <v>0.446</v>
       </c>
       <c r="N10" t="n">
-        <v>0.785</v>
+        <v>0.882</v>
       </c>
       <c r="O10" t="n">
-        <v>0.169</v>
+        <v>0.104</v>
       </c>
       <c r="P10" t="n">
-        <v>0.411</v>
+        <v>0.323</v>
       </c>
       <c r="Q10" t="n">
         <v>0.2</v>
@@ -2123,13 +2123,13 @@
         <v>0.5</v>
       </c>
       <c r="W10" t="n">
-        <v>0.403</v>
+        <v>0.455</v>
       </c>
       <c r="X10" t="n">
-        <v>0.241</v>
+        <v>0.248</v>
       </c>
       <c r="Y10" t="n">
-        <v>0.49</v>
+        <v>0.498</v>
       </c>
       <c r="Z10" t="n">
         <v>0.75</v>
@@ -2159,13 +2159,13 @@
         <v>0.46</v>
       </c>
       <c r="AI10" t="n">
-        <v>0.385</v>
+        <v>0.436</v>
       </c>
       <c r="AJ10" t="n">
-        <v>0.237</v>
+        <v>0.246</v>
       </c>
       <c r="AK10" t="n">
-        <v>0.487</v>
+        <v>0.496</v>
       </c>
       <c r="AL10" t="n">
         <v>0.454</v>
@@ -2195,13 +2195,13 @@
         <v>0.491</v>
       </c>
       <c r="AU10" t="n">
-        <v>0.289</v>
+        <v>0.311</v>
       </c>
       <c r="AV10" t="n">
-        <v>0.205</v>
+        <v>0.214</v>
       </c>
       <c r="AW10" t="n">
-        <v>0.453</v>
+        <v>0.463</v>
       </c>
       <c r="AX10" t="n">
         <v>2.286</v>
@@ -2213,13 +2213,13 @@
         <v>0.422</v>
       </c>
       <c r="BA10" t="n">
-        <v>1.977</v>
+        <v>2.186</v>
       </c>
       <c r="BB10" t="n">
-        <v>0.234</v>
+        <v>0.211</v>
       </c>
       <c r="BC10" t="n">
-        <v>0.483</v>
+        <v>0.459</v>
       </c>
       <c r="BD10" t="n">
         <v>0.679</v>
@@ -2231,13 +2231,13 @@
         <v>0.467</v>
       </c>
       <c r="BG10" t="n">
-        <v>0.628</v>
+        <v>0.674</v>
       </c>
       <c r="BH10" t="n">
-        <v>0.234</v>
+        <v>0.22</v>
       </c>
       <c r="BI10" t="n">
-        <v>0.483</v>
+        <v>0.469</v>
       </c>
       <c r="BJ10" t="n">
         <v>0.839</v>
@@ -2249,19 +2249,19 @@
         <v>0.367</v>
       </c>
       <c r="BM10" t="n">
-        <v>0.721</v>
+        <v>0.8139999999999999</v>
       </c>
       <c r="BN10" t="n">
-        <v>0.201</v>
+        <v>0.151</v>
       </c>
       <c r="BO10" t="n">
-        <v>0.449</v>
+        <v>0.389</v>
       </c>
       <c r="BP10" t="n">
+        <v>0.729</v>
+      </c>
+      <c r="BQ10" t="n">
         <v>0.762</v>
-      </c>
-      <c r="BQ10" t="n">
-        <v>0.659</v>
       </c>
     </row>
     <row r="11">
@@ -2280,13 +2280,13 @@
         <v>0.433</v>
       </c>
       <c r="E11" t="n">
-        <v>0.628</v>
+        <v>0.713</v>
       </c>
       <c r="F11" t="n">
-        <v>0.234</v>
+        <v>0.205</v>
       </c>
       <c r="G11" t="n">
-        <v>0.483</v>
+        <v>0.452</v>
       </c>
       <c r="H11" t="n">
         <v>0.676</v>
@@ -2307,13 +2307,13 @@
         <v>0.437</v>
       </c>
       <c r="N11" t="n">
-        <v>0.806</v>
+        <v>0.903</v>
       </c>
       <c r="O11" t="n">
-        <v>0.156</v>
+        <v>0.08699999999999999</v>
       </c>
       <c r="P11" t="n">
-        <v>0.395</v>
+        <v>0.296</v>
       </c>
       <c r="Q11" t="n">
         <v>0.2</v>
@@ -2334,13 +2334,13 @@
         <v>0.5</v>
       </c>
       <c r="W11" t="n">
-        <v>0.403</v>
+        <v>0.455</v>
       </c>
       <c r="X11" t="n">
-        <v>0.241</v>
+        <v>0.248</v>
       </c>
       <c r="Y11" t="n">
-        <v>0.49</v>
+        <v>0.498</v>
       </c>
       <c r="Z11" t="n">
         <v>0.804</v>
@@ -2370,13 +2370,13 @@
         <v>0.464</v>
       </c>
       <c r="AI11" t="n">
-        <v>0.423</v>
+        <v>0.474</v>
       </c>
       <c r="AJ11" t="n">
-        <v>0.244</v>
+        <v>0.249</v>
       </c>
       <c r="AK11" t="n">
-        <v>0.494</v>
+        <v>0.499</v>
       </c>
       <c r="AL11" t="n">
         <v>0.509</v>
@@ -2406,13 +2406,13 @@
         <v>0.499</v>
       </c>
       <c r="AU11" t="n">
-        <v>0.4</v>
+        <v>0.456</v>
       </c>
       <c r="AV11" t="n">
-        <v>0.24</v>
+        <v>0.248</v>
       </c>
       <c r="AW11" t="n">
-        <v>0.49</v>
+        <v>0.498</v>
       </c>
       <c r="AX11" t="n">
         <v>2.304</v>
@@ -2424,13 +2424,13 @@
         <v>0.41</v>
       </c>
       <c r="BA11" t="n">
-        <v>1.977</v>
+        <v>2.186</v>
       </c>
       <c r="BB11" t="n">
-        <v>0.234</v>
+        <v>0.211</v>
       </c>
       <c r="BC11" t="n">
-        <v>0.483</v>
+        <v>0.459</v>
       </c>
       <c r="BD11" t="n">
         <v>0.679</v>
@@ -2442,13 +2442,13 @@
         <v>0.467</v>
       </c>
       <c r="BG11" t="n">
-        <v>0.628</v>
+        <v>0.674</v>
       </c>
       <c r="BH11" t="n">
-        <v>0.234</v>
+        <v>0.22</v>
       </c>
       <c r="BI11" t="n">
-        <v>0.483</v>
+        <v>0.469</v>
       </c>
       <c r="BJ11" t="n">
         <v>0.839</v>
@@ -2460,19 +2460,19 @@
         <v>0.367</v>
       </c>
       <c r="BM11" t="n">
-        <v>0.721</v>
+        <v>0.8139999999999999</v>
       </c>
       <c r="BN11" t="n">
-        <v>0.201</v>
+        <v>0.151</v>
       </c>
       <c r="BO11" t="n">
-        <v>0.449</v>
+        <v>0.389</v>
       </c>
       <c r="BP11" t="n">
+        <v>0.729</v>
+      </c>
+      <c r="BQ11" t="n">
         <v>0.768</v>
-      </c>
-      <c r="BQ11" t="n">
-        <v>0.659</v>
       </c>
     </row>
     <row r="12">
@@ -2491,13 +2491,13 @@
         <v>0.872</v>
       </c>
       <c r="E12" t="n">
-        <v>1.441</v>
+        <v>1.403</v>
       </c>
       <c r="F12" t="n">
-        <v>0.823</v>
+        <v>0.748</v>
       </c>
       <c r="G12" t="n">
-        <v>0.907</v>
+        <v>0.865</v>
       </c>
       <c r="H12" t="n">
         <v>2.055</v>
@@ -2518,13 +2518,13 @@
         <v>0.704</v>
       </c>
       <c r="N12" t="n">
-        <v>1.468</v>
+        <v>1.465</v>
       </c>
       <c r="O12" t="n">
-        <v>1.106</v>
+        <v>1.039</v>
       </c>
       <c r="P12" t="n">
-        <v>1.052</v>
+        <v>1.02</v>
       </c>
       <c r="Q12" t="n">
         <v>1.5</v>
@@ -2545,13 +2545,13 @@
         <v>0.724</v>
       </c>
       <c r="W12" t="n">
-        <v>1.613</v>
+        <v>1.629</v>
       </c>
       <c r="X12" t="n">
-        <v>0.5600000000000001</v>
+        <v>0.576</v>
       </c>
       <c r="Y12" t="n">
-        <v>0.748</v>
+        <v>0.759</v>
       </c>
       <c r="Z12" t="n">
         <v>1.689</v>
@@ -2581,13 +2581,13 @@
         <v>0.915</v>
       </c>
       <c r="AI12" t="n">
-        <v>1.788</v>
+        <v>1.703</v>
       </c>
       <c r="AJ12" t="n">
-        <v>1.379</v>
+        <v>1.29</v>
       </c>
       <c r="AK12" t="n">
-        <v>1.174</v>
+        <v>1.136</v>
       </c>
       <c r="AL12" t="n">
         <v>2.155</v>
@@ -2617,13 +2617,13 @@
         <v>1.949</v>
       </c>
       <c r="AU12" t="n">
-        <v>2.684</v>
+        <v>2.767</v>
       </c>
       <c r="AV12" t="n">
-        <v>2.848</v>
+        <v>2.737</v>
       </c>
       <c r="AW12" t="n">
-        <v>1.687</v>
+        <v>1.654</v>
       </c>
       <c r="AX12" t="n">
         <v>3.73</v>
@@ -2635,13 +2635,13 @@
         <v>0.752</v>
       </c>
       <c r="BA12" t="n">
-        <v>3.776</v>
+        <v>3.767</v>
       </c>
       <c r="BB12" t="n">
-        <v>0.455</v>
+        <v>0.44</v>
       </c>
       <c r="BC12" t="n">
-        <v>0.675</v>
+        <v>0.663</v>
       </c>
       <c r="BD12" t="n">
         <v>1.105</v>
@@ -2653,13 +2653,13 @@
         <v>0.383</v>
       </c>
       <c r="BG12" t="n">
-        <v>1.148</v>
+        <v>1.138</v>
       </c>
       <c r="BH12" t="n">
-        <v>0.2</v>
+        <v>0.188</v>
       </c>
       <c r="BI12" t="n">
-        <v>0.448</v>
+        <v>0.433</v>
       </c>
       <c r="BJ12" t="n">
         <v>1.17</v>
@@ -2671,19 +2671,19 @@
         <v>0.376</v>
       </c>
       <c r="BM12" t="n">
-        <v>1.258</v>
+        <v>1.229</v>
       </c>
       <c r="BN12" t="n">
-        <v>0.256</v>
+        <v>0.233</v>
       </c>
       <c r="BO12" t="n">
-        <v>0.506</v>
+        <v>0.483</v>
       </c>
       <c r="BP12" t="n">
+        <v>1.256</v>
+      </c>
+      <c r="BQ12" t="n">
         <v>1.243</v>
-      </c>
-      <c r="BQ12" t="n">
-        <v>1.259</v>
       </c>
     </row>
     <row r="13">
@@ -2702,13 +2702,13 @@
         <v>0.537</v>
       </c>
       <c r="E13" t="n">
-        <v>1.512</v>
+        <v>1.573</v>
       </c>
       <c r="F13" t="n">
-        <v>0.415</v>
+        <v>0.652</v>
       </c>
       <c r="G13" t="n">
-        <v>0.645</v>
+        <v>0.8080000000000001</v>
       </c>
       <c r="H13" t="n">
         <v>1.753</v>
@@ -2729,13 +2729,13 @@
         <v>0.641</v>
       </c>
       <c r="N13" t="n">
-        <v>2.014</v>
+        <v>2.068</v>
       </c>
       <c r="O13" t="n">
-        <v>0.772</v>
+        <v>0.928</v>
       </c>
       <c r="P13" t="n">
-        <v>0.878</v>
+        <v>0.964</v>
       </c>
       <c r="Q13" t="n">
         <v>0.543</v>
@@ -2756,13 +2756,13 @@
         <v>0.427</v>
       </c>
       <c r="W13" t="n">
-        <v>1.005</v>
+        <v>1.037</v>
       </c>
       <c r="X13" t="n">
-        <v>0.165</v>
+        <v>0.193</v>
       </c>
       <c r="Y13" t="n">
-        <v>0.406</v>
+        <v>0.439</v>
       </c>
       <c r="Z13" t="n">
         <v>1.354</v>
@@ -2792,13 +2792,13 @@
         <v>0.585</v>
       </c>
       <c r="AI13" t="n">
-        <v>1.231</v>
+        <v>1.28</v>
       </c>
       <c r="AJ13" t="n">
-        <v>0.256</v>
+        <v>0.37</v>
       </c>
       <c r="AK13" t="n">
-        <v>0.506</v>
+        <v>0.608</v>
       </c>
       <c r="AL13" t="n">
         <v>1.494</v>
@@ -2828,13 +2828,13 @@
         <v>1.597</v>
       </c>
       <c r="AU13" t="n">
-        <v>2.216</v>
+        <v>2.285</v>
       </c>
       <c r="AV13" t="n">
-        <v>0.725</v>
+        <v>0.925</v>
       </c>
       <c r="AW13" t="n">
-        <v>0.851</v>
+        <v>0.962</v>
       </c>
       <c r="AX13" t="n">
         <v>1.982</v>
@@ -2846,13 +2846,13 @@
         <v>0.488</v>
       </c>
       <c r="BA13" t="n">
-        <v>2.132</v>
+        <v>2.159</v>
       </c>
       <c r="BB13" t="n">
-        <v>0.268</v>
+        <v>0.277</v>
       </c>
       <c r="BC13" t="n">
-        <v>0.517</v>
+        <v>0.527</v>
       </c>
       <c r="BD13" t="n">
         <v>0.501</v>
@@ -2864,13 +2864,13 @@
         <v>0.215</v>
       </c>
       <c r="BG13" t="n">
-        <v>0.538</v>
+        <v>0.542</v>
       </c>
       <c r="BH13" t="n">
-        <v>0.051</v>
+        <v>0.05</v>
       </c>
       <c r="BI13" t="n">
-        <v>0.226</v>
+        <v>0.224</v>
       </c>
       <c r="BJ13" t="n">
         <v>0.715</v>
@@ -2882,19 +2882,19 @@
         <v>0.377</v>
       </c>
       <c r="BM13" t="n">
-        <v>0.765</v>
+        <v>0.776</v>
       </c>
       <c r="BN13" t="n">
-        <v>0.152</v>
+        <v>0.164</v>
       </c>
       <c r="BO13" t="n">
-        <v>0.39</v>
+        <v>0.404</v>
       </c>
       <c r="BP13" t="n">
+        <v>0.72</v>
+      </c>
+      <c r="BQ13" t="n">
         <v>0.661</v>
-      </c>
-      <c r="BQ13" t="n">
-        <v>0.711</v>
       </c>
     </row>
   </sheetData>

--- a/stats/avey/disease_type=all failure-type-ignored=any-error for app=best.xlsx
+++ b/stats/avey/disease_type=all failure-type-ignored=any-error for app=best.xlsx
@@ -1114,7 +1114,7 @@
         <v>0.173</v>
       </c>
       <c r="AX4" t="n">
-        <v>2.239</v>
+        <v>0.647</v>
       </c>
       <c r="AY4" t="n">
         <v>0.128</v>
@@ -1123,7 +1123,7 @@
         <v>0.358</v>
       </c>
       <c r="BA4" t="n">
-        <v>2.161</v>
+        <v>0.624</v>
       </c>
       <c r="BB4" t="n">
         <v>0.141</v>
@@ -1325,7 +1325,7 @@
         <v>0.33</v>
       </c>
       <c r="AX5" t="n">
-        <v>1.4</v>
+        <v>0.45</v>
       </c>
       <c r="AY5" t="n">
         <v>0.062</v>
@@ -1334,7 +1334,7 @@
         <v>0.249</v>
       </c>
       <c r="BA5" t="n">
-        <v>1.408</v>
+        <v>0.439</v>
       </c>
       <c r="BB5" t="n">
         <v>0.07099999999999999</v>
@@ -1472,12 +1472,12 @@
       <c r="AV6" t="inlineStr"/>
       <c r="AW6" t="inlineStr"/>
       <c r="AX6" t="n">
-        <v>1.712</v>
+        <v>0.531</v>
       </c>
       <c r="AY6" t="inlineStr"/>
       <c r="AZ6" t="inlineStr"/>
       <c r="BA6" t="n">
-        <v>1.693</v>
+        <v>0.515</v>
       </c>
       <c r="BB6" t="inlineStr"/>
       <c r="BC6" t="inlineStr"/>
@@ -1595,12 +1595,12 @@
       <c r="AV7" t="inlineStr"/>
       <c r="AW7" t="inlineStr"/>
       <c r="AX7" t="n">
-        <v>1.509</v>
+        <v>0.479</v>
       </c>
       <c r="AY7" t="inlineStr"/>
       <c r="AZ7" t="inlineStr"/>
       <c r="BA7" t="n">
-        <v>1.509</v>
+        <v>0.467</v>
       </c>
       <c r="BB7" t="inlineStr"/>
       <c r="BC7" t="inlineStr"/>
@@ -1782,7 +1782,7 @@
         <v>0.337</v>
       </c>
       <c r="AX8" t="n">
-        <v>1.967</v>
+        <v>0.613</v>
       </c>
       <c r="AY8" t="n">
         <v>0.092</v>
@@ -1791,7 +1791,7 @@
         <v>0.304</v>
       </c>
       <c r="BA8" t="n">
-        <v>1.925</v>
+        <v>0.584</v>
       </c>
       <c r="BB8" t="n">
         <v>0.105</v>
@@ -1993,7 +1993,7 @@
         <v>0.436</v>
       </c>
       <c r="AX9" t="n">
-        <v>2.049</v>
+        <v>0.607</v>
       </c>
       <c r="AY9" t="n">
         <v>0.239</v>
@@ -2002,7 +2002,7 @@
         <v>0.488</v>
       </c>
       <c r="BA9" t="n">
-        <v>1.978</v>
+        <v>0.5669999999999999</v>
       </c>
       <c r="BB9" t="n">
         <v>0.246</v>
@@ -2204,7 +2204,7 @@
         <v>0.493</v>
       </c>
       <c r="AX10" t="n">
-        <v>2.402</v>
+        <v>0.757</v>
       </c>
       <c r="AY10" t="n">
         <v>0.184</v>
@@ -2213,7 +2213,7 @@
         <v>0.429</v>
       </c>
       <c r="BA10" t="n">
-        <v>2.314</v>
+        <v>0.71</v>
       </c>
       <c r="BB10" t="n">
         <v>0.206</v>
@@ -2415,7 +2415,7 @@
         <v>0.5</v>
       </c>
       <c r="AX11" t="n">
-        <v>2.412</v>
+        <v>0.764</v>
       </c>
       <c r="AY11" t="n">
         <v>0.18</v>
@@ -2424,7 +2424,7 @@
         <v>0.425</v>
       </c>
       <c r="BA11" t="n">
-        <v>2.323</v>
+        <v>0.714</v>
       </c>
       <c r="BB11" t="n">
         <v>0.204</v>
@@ -2626,7 +2626,7 @@
         <v>1.485</v>
       </c>
       <c r="AX12" t="n">
-        <v>3.538</v>
+        <v>1.255</v>
       </c>
       <c r="AY12" t="n">
         <v>0.308</v>
@@ -2635,7 +2635,7 @@
         <v>0.555</v>
       </c>
       <c r="BA12" t="n">
-        <v>3.529</v>
+        <v>1.245</v>
       </c>
       <c r="BB12" t="n">
         <v>0.275</v>
@@ -2837,7 +2837,7 @@
         <v>0.877</v>
       </c>
       <c r="AX13" t="n">
-        <v>2.172</v>
+        <v>0.837</v>
       </c>
       <c r="AY13" t="n">
         <v>0.239</v>
@@ -2846,7 +2846,7 @@
         <v>0.489</v>
       </c>
       <c r="BA13" t="n">
-        <v>2.292</v>
+        <v>0.865</v>
       </c>
       <c r="BB13" t="n">
         <v>0.266</v>
